--- a/expimp/estimate.xlsx
+++ b/expimp/estimate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,80 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4e3432</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1204200.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37000.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>eabde6a5-d464-44c0-86fa-d25e9b853ab1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9dba22aa-1984-4811-aacc-f18314637b3f</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>hfgdhfg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1204200.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37000.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>eabde6a5-d464-44c0-86fa-d25e9b853ab1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>325c16c8-7841-4183-9d89-fe07130c5545</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
